--- a/leaf_launch/vitals/usagi_mapping-flo-vitals-2021-08-30.xlsx
+++ b/leaf_launch/vitals/usagi_mapping-flo-vitals-2021-08-30.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quinnt03\OneDrive - The Mount Sinai Hospital\Project - OMOP\Dev - Concept Mapping\new-mapping-table-tim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/sc_repos/leaf-scripts/leaf_launch/vitals/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F797B-A754-DD4C-9855-2AA9B6769C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="3280" yWindow="3680" windowWidth="31720" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -248,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,37 +581,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -666,7 +667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>5</v>
       </c>
@@ -710,7 +711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>5</v>
       </c>
@@ -754,7 +755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>6</v>
       </c>
@@ -795,7 +796,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>8</v>
       </c>
@@ -839,7 +840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>9</v>
       </c>
@@ -880,7 +881,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -921,7 +922,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>11</v>
       </c>
@@ -962,7 +963,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>13</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>14</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>16</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>3029</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>888401001</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1572140201</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1572140202</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1572140203</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1572140204</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>1572140205</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>1572140206</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>3040100950</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>8</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>9</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>10</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>13</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>16</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>3029</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>888401001</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>1572140201</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>1572140202</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>1572140203</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>1572140204</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>1572140205</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>1572140206</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>3040100950</v>
       </c>
@@ -2196,7 +2197,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R38">
     <sortCondition ref="J2:J38"/>
     <sortCondition ref="A2:A38"/>
     <sortCondition ref="F2:F38"/>
